--- a/7_Part 4 Graphics and tables/xlsx-files/Haushaltstypen.xlsx
+++ b/7_Part 4 Graphics and tables/xlsx-files/Haushaltstypen.xlsx
@@ -460,11 +460,11 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Paar ohne Kinder</t>
+          <t>alleinlebend</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>26</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="3">
@@ -474,17 +474,17 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>alleinlebend</t>
+          <t>Paar ohne Kinder</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>24.4</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>24.1</v>
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
